--- a/MyGtn/AppGtn/test_data/data_import/VehicleColor_import.xlsx
+++ b/MyGtn/AppGtn/test_data/data_import/VehicleColor_import.xlsx
@@ -60,12 +60,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,9 +92,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -380,7 +394,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -413,7 +427,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -423,6 +437,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
